--- a/Computer/OSInfo.xlsx
+++ b/Computer/OSInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12668E67-EE53-4FA2-909A-8DAE37457043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E28F4E-4056-44A6-BD9C-DAC3F165771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{063C63D3-E0D3-4B54-8FDA-93B1DA5A386F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t xml:space="preserve">.DIR # </t>
     <phoneticPr fontId="1"/>
@@ -65,18 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Delets a file?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Creates a new file?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exectues a file?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Formats the drive platter at #</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,10 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Gets info on file?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Arguments</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,22 +109,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DD=#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>.SETA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.FSPEC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sets current working drive platter to #</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>.END</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,14 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Known Commands at OS Prompt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Known Scripts from HWKRPL2 that Work at OS Prompt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,14 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>View and edit memory at 0x#### address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>View a block of memory from 0x#### to 0x####</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A, B, X, Y, Z</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,31 +225,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Fill block of memory from 0x#### to 0x#### with value XX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The 3 is needed for MMIO addressing</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MXXXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MXXXX-XXXX,XX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M3XXXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DXXXX,XXXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>###</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MX3XXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MXXXXXX-XXXXXX,XX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DXXXXXX,XXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View a block of memory from 0x###### to 0x######</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fill block of memory from 0x###### to 0x###### with value XX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View and edit memory at 0x###### address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.CON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cleanup and get back to prompt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.LOADER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write Disk Loader track</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.DUMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disk dump (source to destination)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.COP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scripts from HWKRPL2 that Work at OS Prompt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy? (guess)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.DEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete? (guess)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.NEWDSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create a new disk volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.PKCOPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy one pack to another? (requires two hawks?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.SELREST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Selective Restore (not sure what it means though)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.START</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Starts a job?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.LOAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loads a file?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.CRT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arguments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Filename</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File viewer (Not sure how to use for files in folders)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.SKIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.USE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use variable for something??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skips next instruction if condition met??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.FPSEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gets information on a file??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delets a variable?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Executable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Runs an executable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC=#, DD=#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DD = Sets current working drive platter to #, CC= ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.ENTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JCL Commands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get input from user and put in variable #?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NOLOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NOTIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.SKIPR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to # if # arg #</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to argument 1 if argument 2??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.LOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not sure?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.LOAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loads something (to where? to do what with?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.SETC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#=??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creates a new variable?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -349,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +552,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,335 +879,566 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:I34"/>
+  <dimension ref="B3:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="3" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
-    <col min="9" max="9" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="55.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:10">
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="7:9">
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9">
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
-      <c r="G20" t="s">
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="I20" t="s">
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="7:9">
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9">
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9">
-      <c r="G27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="7:9">
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9">
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9">
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="7:9">
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="7:9">
-      <c r="G32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9">
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9">
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="3"/>
+      <c r="E51" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G3:I3"/>
+  <mergeCells count="4">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Computer/OSInfo.xlsx
+++ b/Computer/OSInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E28F4E-4056-44A6-BD9C-DAC3F165771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D26C0-CFF5-4F74-93FE-FFC85AF54FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{063C63D3-E0D3-4B54-8FDA-93B1DA5A386F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t xml:space="preserve">.DIR # </t>
     <phoneticPr fontId="1"/>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Delets a variable?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Executable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,6 +478,30 @@
   </si>
   <si>
     <t>Creates a new variable?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.REORG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Like FDISK and COPY *.*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.VSPEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Variable?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deletes a variable?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,9 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +902,7 @@
   <dimension ref="B3:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -896,18 +916,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
@@ -939,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
@@ -973,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -990,13 +1010,13 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
@@ -1061,13 +1081,13 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" t="s">
         <v>107</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -1078,10 +1098,10 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
         <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -1101,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -1115,10 +1135,10 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -1135,10 +1155,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -1169,24 +1189,24 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -1197,102 +1217,117 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="1" t="s">
@@ -1369,11 +1404,11 @@
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="1" t="s">
